--- a/NformTester/NformTester/keywordscripts/TST540_CheckFunctionalityForGraphType.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST540_CheckFunctionalityForGraphType.xlsx
@@ -1244,7 +1244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7525" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7532" uniqueCount="878">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3888,13 +3888,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3908,6 +3901,22 @@
   </si>
   <si>
     <t>14:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4465,8 +4474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F88" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView tabSelected="1" topLeftCell="D91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4479,6 +4488,7 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4647,7 +4657,7 @@
         <v>59</v>
       </c>
       <c r="B6" s="10">
-        <v>41079</v>
+        <v>41450</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4694,9 +4704,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>874</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4723,11 +4733,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>62</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4753,16 +4761,20 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F10" s="11">
         <v>2</v>
@@ -4778,10 +4790,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4799,10 +4809,10 @@
         <v>83</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>86</v>
@@ -4818,7 +4828,7 @@
     </row>
     <row r="12" spans="1:15" ht="15">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4841,7 +4851,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -4870,7 +4880,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -4899,7 +4909,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -4918,7 +4928,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -4930,7 +4940,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -4958,10 +4968,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>70</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -4989,7 +4999,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5016,11 +5026,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5048,9 +5056,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>72</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5077,7 +5087,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5105,6 +5115,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5191,7 +5205,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -5459,10 +5473,12 @@
       <c r="H36" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I36" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" s="5"/>
+      <c r="I36" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="J36" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -5719,10 +5735,12 @@
       <c r="H46" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I46" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" s="5"/>
+      <c r="I46" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="J46" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -5979,10 +5997,12 @@
       <c r="H56" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I56" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" s="5"/>
+      <c r="I56" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="J56" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
@@ -6239,10 +6259,12 @@
       <c r="H66" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I66" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" s="5"/>
+      <c r="I66" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="J66" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -6499,10 +6521,12 @@
       <c r="H76" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I76" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" s="5"/>
+      <c r="I76" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="J76" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
@@ -6759,10 +6783,12 @@
       <c r="H86" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I86" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" s="5"/>
+      <c r="I86" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="J86" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -7117,7 +7143,7 @@
         <v>2</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I100" s="11"/>
       <c r="J100" s="5"/>
@@ -7287,7 +7313,7 @@
         <v>862</v>
       </c>
       <c r="J106" s="19" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
